--- a/Assignments/Project3/P3_Data.xlsx
+++ b/Assignments/Project3/P3_Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E1A92-26E8-4D43-A1A7-8FAC25E323B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97ECFD3-719A-4CDE-9BE4-8114D51F13D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expected Delay" sheetId="4" r:id="rId1"/>
+    <sheet name="ExpectedDelay" sheetId="4" r:id="rId1"/>
     <sheet name="NetA" sheetId="2" r:id="rId2"/>
     <sheet name="NetB" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
   <si>
     <t>B</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>NetA Delay</t>
+  </si>
+  <si>
+    <t>Nodes:</t>
+  </si>
+  <si>
+    <t>NetB Delay:</t>
+  </si>
+  <si>
+    <t>% Difference:</t>
+  </si>
+  <si>
+    <t>Expected (s)</t>
+  </si>
+  <si>
+    <t>Traffic Load</t>
+  </si>
+  <si>
+    <t>Expected Delays:</t>
+  </si>
+  <si>
+    <t>Expected Service Times for Nodes A-F:</t>
   </si>
 </sst>
 </file>
@@ -184,8 +208,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -260,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,11 +300,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2098,15 +2156,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2141,16 +2199,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2475,327 +2533,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472FA95-8779-4D51-BF62-F3B98DB8077F}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="E1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <f>1/(F9-F2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <f>1/(F9-J2)</f>
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F3">
-        <f>F2*0.5</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <f>1/($F$10-F3)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="9"/>
+        <f>1/(F10-F3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="8"/>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <f>J2*0.5</f>
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <f>1/($F$10-J3)</f>
-        <v>0.66666666666666663</v>
+        <f>1/(F10-J3)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="F4">
-        <f>F2*0.5</f>
+        <f>F3*0.5</f>
         <v>7.5</v>
       </c>
       <c r="G4">
-        <f>1/($F$10-F4)</f>
+        <f>1/($F$11-F4)</f>
         <v>0.4</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="I4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>J2*0.5</f>
+        <f>J3*0.5</f>
         <v>8.5</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="0">1/($F$10-J4)</f>
+        <f>1/($F$11-J4)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="F5">
         <f>F3*0.5</f>
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="G5">
-        <f>1/($F$10-F5)</f>
-        <v>0.16</v>
-      </c>
-      <c r="H5" s="9"/>
+        <f>1/($F$11-F5)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>J3*0.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K8" si="0">1/($F$11-J5)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>F4*0.5</f>
+        <v>3.75</v>
+      </c>
+      <c r="G6">
+        <f>1/($F$11-F6)</f>
+        <v>0.16</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f>J4*0.5</f>
         <v>4.25</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.17391304347826086</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
-        <f>0.4*F4</f>
+      <c r="F7">
+        <f>0.4*F5</f>
         <v>3</v>
       </c>
-      <c r="G6">
-        <f>1/($F$10-F6)</f>
+      <c r="G7">
+        <f>1/($F$11-F7)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
-        <f>0.4*J4</f>
+      <c r="J7">
+        <f>0.4*J5</f>
         <v>3.4000000000000004</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
-        <f>0.3*(F3+F4)</f>
+      <c r="F8">
+        <f>0.3*(F4+F5)</f>
         <v>4.5</v>
       </c>
-      <c r="G7">
-        <f>1/($F$10-F7)</f>
+      <c r="G8">
+        <f>1/($F$11-F8)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" t="s">
         <v>3</v>
       </c>
-      <c r="J7">
-        <f>0.3*(J3+J4)</f>
+      <c r="J8">
+        <f>0.3*(J4+J5)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0.2040816326530612</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
-        <f>G2+0.5*(0.06+G3+0.5*(0.04+G5)+0.3*(0.03+G7))+0.5*(0.05+G4+0.3*(0.02+G7)+0.4*(0.01+G6))</f>
-        <v>0.79761688311688306</v>
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14">
-        <f>K2+0.5*(0.06+K3+0.5*(0.04+K5)+0.3*(0.03+K7))+0.5*(0.05+K4+0.3*(0.02+G8)+0.4*(0.01+K6))</f>
-        <v>1.1788935360705546</v>
+        <f>G3+0.5*(0.06+G4+0.5*(0.04+G6)+0.3*(0.03+G8))+0.5*(0.05+G5+0.3*(0.02+G8)+0.4*(0.01+G7))</f>
+        <v>0.79761688311688306</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <f>K3+0.5*(0.06+K4+0.5*(0.04+K6)+0.3*(0.03+K8))+0.5*(0.05+K5+0.3*(0.02+G9)+0.4*(0.01+K7))</f>
+        <v>1.1788935360705546</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>0.2</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>G3+0.06+G4</f>
+        <v>0.66</v>
+      </c>
+      <c r="D21">
+        <f>K3+0.06+K4</f>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>G3+0.05+G5</f>
+        <v>0.65</v>
+      </c>
+      <c r="D22">
+        <f>K3+0.05+K5</f>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>G3+0.06+G4+0.04+G6</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="D23">
+        <f>K3+0.06+K4+0.04+K6</f>
+        <v>1.2739130434782608</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>0.5*(G3+0.06+G4+0.03+G8)+0.5*(G3+0.05+G5+0.02+G8)</f>
+        <v>0.86181818181818182</v>
+      </c>
+      <c r="D24">
+        <f>0.5*(K3+0.06+K4+0.03+K8)+0.5*(K3+0.05+K5+0.02+K8)</f>
+        <v>1.2840816326530611</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>G3+0.05+G5+0.01+G7</f>
+        <v>0.80285714285714294</v>
+      </c>
+      <c r="D25">
+        <f>K3+0.05+K5+0.01+K7</f>
+        <v>1.2115151515151514</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2805,7 +2961,7 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,6 +2972,7 @@
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2983,7 +3140,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2996,14 +3153,14 @@
       <c r="F7">
         <v>0.66259501928180797</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="12">
         <f>AVERAGEIF($D$3:$D$17, J7,$E$3:$E$17)</f>
         <v>107871.66666666667</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="13">
         <f t="shared" si="0"/>
         <v>0.19987215198473235</v>
       </c>
@@ -3027,14 +3184,14 @@
       <c r="F8">
         <v>0.80198962684848596</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="10">
         <f>SUM(K3:K7)</f>
         <v>539703.33333333337</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="14">
         <f>SUM(L3:L7)</f>
         <v>1</v>
       </c>
@@ -3096,6 +3253,12 @@
       <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
@@ -3117,7 +3280,13 @@
         <f>AVERAGEIF(D3:D17, J12,F3:F17)</f>
         <v>0.66004888224439029</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12">
+        <v>0.66</v>
+      </c>
+      <c r="M12" s="5">
+        <f>ABS((L12-K12)/L12)</f>
+        <v>7.406400665190624E-5</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -3139,7 +3308,13 @@
         <f t="shared" ref="K13:K16" si="1">AVERAGEIF(D4:D18, J13,F4:F18)</f>
         <v>0.65093532837208334</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13">
+        <v>0.65</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ref="M13:M17" si="2">ABS((L13-K13)/L13)</f>
+        <v>1.4389667262820333E-3</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -3161,7 +3336,13 @@
         <f t="shared" si="1"/>
         <v>0.86090212760949736</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0489855924386753E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -3183,9 +3364,15 @@
         <f t="shared" si="1"/>
         <v>0.86511522213617598</v>
       </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0.86181818181818182</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="2"/>
+        <v>3.82567969387508E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3198,16 +3385,22 @@
       <c r="F16">
         <v>0.65551862515710302</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="12">
         <f t="shared" si="1"/>
         <v>0.80614632683151199</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="12">
+        <v>0.80285714285714294</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="2"/>
+        <v>4.0968483666518523E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3223,9 +3416,17 @@
       <c r="J17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f>SUMPRODUCT(K12:K16,L3:L7)</f>
         <v>0.79967241796608146</v>
+      </c>
+      <c r="L17" s="10">
+        <f>SUMPRODUCT(L12:L16,O3:O7)</f>
+        <v>0.79761688311688317</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="2"/>
+        <v>2.5770954611263833E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3238,15 +3439,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752A21F7-07F8-4DA3-997C-BEFBEAB2554C}">
   <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3254,6 +3456,9 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -3416,7 +3621,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3430,14 +3635,14 @@
         <v>1.04919283433733</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>122292.66666666667</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>0.1999390718761121</v>
       </c>
@@ -3462,14 +3667,14 @@
         <v>1.1920559400087001</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="10">
         <f>SUM(K4:K8)</f>
         <v>611649.66666666663</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <f>SUM(L4:L8)</f>
         <v>1</v>
       </c>
@@ -3510,6 +3715,9 @@
         <v>1.2601654447852499</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
@@ -3531,6 +3739,12 @@
       <c r="K12" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="L12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -3549,11 +3763,17 @@
       <c r="J13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="15">
         <f>AVERAGEIF($D$4:$D$18, J13,$F$4:$F$18)</f>
         <v>1.0420905485652268</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="M13" s="21">
+        <f>ABS(L13-K13)/L13</f>
+        <v>1.6895708900729521E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -3572,11 +3792,17 @@
       <c r="J14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="15">
         <f t="shared" ref="K14:K17" si="2">AVERAGEIF($D$4:$D$18, J14,$F$4:$F$18)</f>
         <v>1.0447305241176235</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="16">
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" ref="M14:M18" si="3">ABS(L14-K14)/L14</f>
+        <v>5.0185484594060603E-3</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -3595,11 +3821,17 @@
       <c r="J15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>1.2574501728031833</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="16">
+        <v>1.2739130434782608</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="3"/>
+        <v>1.2923072543576247E-2</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -3618,13 +3850,19 @@
       <c r="J16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>1.2765761753959068</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="16">
+        <v>1.2840816326530611</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="3"/>
+        <v>5.8450000890107687E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3638,16 +3876,22 @@
         <v>1.0567761080482201</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="17">
         <f t="shared" si="2"/>
         <v>1.20670980647496</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="18">
+        <v>1.2115151515151514</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="3"/>
+        <v>3.9663928545852619E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3664,11 +3908,18 @@
       <c r="J18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="19">
         <f>SUMPRODUCT(K13:K17,L4:L8)</f>
         <v>1.19956211298444</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="20">
+        <f>SUMPRODUCT(L13:L17,O4:O8)</f>
+        <v>1.2095057809685137</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" si="3"/>
+        <v>8.2212653635365326E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignments/Project3/P3_Data.xlsx
+++ b/Assignments/Project3/P3_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97ECFD3-719A-4CDE-9BE4-8114D51F13D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B5DF6-99D0-44FD-99B3-3CDF25F0DED7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
   </bookViews>
@@ -207,9 +207,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -284,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,18 +329,24 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,62 +379,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Traffic Load - Network A</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -721,37 +673,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2157,15 +2079,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>7328</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2535,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472FA95-8779-4D51-BF62-F3B98DB8077F}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,15 +2474,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2790,6 +2712,14 @@
       <c r="F11">
         <v>10</v>
       </c>
+      <c r="H11">
+        <f>G3*1000</f>
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <f>K3*1000</f>
+        <v>333.33333333333331</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -2798,6 +2728,14 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H16" si="1">G4*1000</f>
+        <v>400</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="2">K4*1000</f>
+        <v>666.66666666666663</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -2813,6 +2751,14 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>666.66666666666663</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2826,8 +2772,16 @@
         <v>46</v>
       </c>
       <c r="F14">
-        <f>G3+0.5*(0.06+G4+0.5*(0.04+G6)+0.3*(0.03+G8))+0.5*(0.05+G5+0.3*(0.02+G8)+0.4*(0.01+G7))</f>
-        <v>0.79761688311688306</v>
+        <f>SUMPRODUCT(C13:C17,C21:C25)</f>
+        <v>0.79761688311688317</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>173.91304347826087</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,8 +2796,16 @@
         <v>48</v>
       </c>
       <c r="F15">
-        <f>K3+0.5*(0.06+K4+0.5*(0.04+K6)+0.3*(0.03+K8))+0.5*(0.05+K5+0.3*(0.02+G9)+0.4*(0.01+K7))</f>
-        <v>1.1788935360705546</v>
+        <f>SUMPRODUCT(D21:D25,C13:C17)</f>
+        <v>1.2095057809685137</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>151.51515151515153</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2854,6 +2816,14 @@
         <v>0.3</v>
       </c>
       <c r="D16" s="4"/>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>181.81818181818181</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>204.08163265306121</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -2865,11 +2835,11 @@
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -2886,11 +2856,11 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="25">
         <f>G3+0.06+G4</f>
         <v>0.66</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="25">
         <f>K3+0.06+K4</f>
         <v>1.06</v>
       </c>
@@ -2899,11 +2869,11 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="25">
         <f>G3+0.05+G5</f>
         <v>0.65</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="25">
         <f>K3+0.05+K5</f>
         <v>1.0499999999999998</v>
       </c>
@@ -2912,7 +2882,7 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="25">
         <f>G3+0.06+G4+0.04+G6</f>
         <v>0.8600000000000001</v>
       </c>
@@ -2958,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC06F7B-4B30-41AA-A5D1-AEF115CE92AD}">
-  <dimension ref="B1:O17"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3253,7 @@
       <c r="L12">
         <v>0.66</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="28">
         <f>ABS((L12-K12)/L12)</f>
         <v>7.406400665190624E-5</v>
       </c>
@@ -3311,7 +3281,7 @@
       <c r="L13">
         <v>0.65</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="28">
         <f t="shared" ref="M13:M17" si="2">ABS((L13-K13)/L13)</f>
         <v>1.4389667262820333E-3</v>
       </c>
@@ -3339,7 +3309,7 @@
       <c r="L14">
         <v>0.8600000000000001</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="28">
         <f t="shared" si="2"/>
         <v>1.0489855924386753E-3</v>
       </c>
@@ -3367,7 +3337,7 @@
       <c r="L15">
         <v>0.86181818181818182</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="28">
         <f t="shared" si="2"/>
         <v>3.82567969387508E-3</v>
       </c>
@@ -3395,10 +3365,11 @@
       <c r="L16" s="12">
         <v>0.80285714285714294</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="29">
         <f t="shared" si="2"/>
         <v>4.0968483666518523E-3</v>
       </c>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -3424,9 +3395,15 @@
         <f>SUMPRODUCT(L12:L16,O3:O7)</f>
         <v>0.79761688311688317</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="30">
         <f t="shared" si="2"/>
         <v>2.5770954611263833E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="26">
+        <f>AVERAGE(M12:M16)</f>
+        <v>2.0969088771799092E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3437,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752A21F7-07F8-4DA3-997C-BEFBEAB2554C}">
-  <dimension ref="B2:O18"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,7 +3883,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="J18" s="6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K18" s="19">
         <f>SUMPRODUCT(K13:K17,L4:L8)</f>
@@ -3919,6 +3896,12 @@
       <c r="M18" s="21">
         <f t="shared" si="3"/>
         <v>8.2212653635365326E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="27">
+        <f>AVERAGE(M13:M17)</f>
+        <v>8.9297445694615715E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Assignments/Project3/P3_Data.xlsx
+++ b/Assignments/Project3/P3_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B5DF6-99D0-44FD-99B3-3CDF25F0DED7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7F81C-91BA-4ADF-B1FB-92A0D0E0A3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedDelay" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
   <si>
     <t>B</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Destination:</t>
   </si>
   <si>
-    <t>Rates:</t>
-  </si>
-  <si>
     <t>muA</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>Arrival Rates:</t>
-  </si>
-  <si>
     <t>E[r_node]</t>
   </si>
   <si>
@@ -200,7 +194,10 @@
     <t>Expected Delays:</t>
   </si>
   <si>
-    <t>Expected Service Times for Nodes A-F:</t>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Expected time in system for Nodes A-F:</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -243,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -276,6 +279,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -335,18 +347,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2457,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472FA95-8779-4D51-BF62-F3B98DB8077F}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,36 +2482,42 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2510,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -2521,7 +2539,7 @@
       </c>
       <c r="H3" s="8"/>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>17</v>
@@ -2696,7 +2714,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -2707,7 +2725,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -2737,7 +2755,7 @@
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,11 +2763,11 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -2769,7 +2787,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <f>SUMPRODUCT(C13:C17,C21:C25)</f>
@@ -2793,7 +2811,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <f>SUMPRODUCT(D21:D25,C13:C17)</f>
@@ -2835,32 +2853,32 @@
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <f>G3+0.06+G4</f>
         <v>0.66</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <f>K3+0.06+K4</f>
         <v>1.06</v>
       </c>
@@ -2869,11 +2887,11 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="23">
         <f>G3+0.05+G5</f>
         <v>0.65</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <f>K3+0.05+K5</f>
         <v>1.0499999999999998</v>
       </c>
@@ -2882,7 +2900,7 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <f>G3+0.06+G4+0.04+G6</f>
         <v>0.8600000000000001</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -3253,7 +3271,7 @@
       <c r="L12">
         <v>0.66</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="26">
         <f>ABS((L12-K12)/L12)</f>
         <v>7.406400665190624E-5</v>
       </c>
@@ -3281,7 +3299,7 @@
       <c r="L13">
         <v>0.65</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="26">
         <f t="shared" ref="M13:M17" si="2">ABS((L13-K13)/L13)</f>
         <v>1.4389667262820333E-3</v>
       </c>
@@ -3309,7 +3327,7 @@
       <c r="L14">
         <v>0.8600000000000001</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="26">
         <f t="shared" si="2"/>
         <v>1.0489855924386753E-3</v>
       </c>
@@ -3337,7 +3355,7 @@
       <c r="L15">
         <v>0.86181818181818182</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="26">
         <f t="shared" si="2"/>
         <v>3.82567969387508E-3</v>
       </c>
@@ -3365,11 +3383,11 @@
       <c r="L16" s="12">
         <v>0.80285714285714294</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <f t="shared" si="2"/>
         <v>4.0968483666518523E-3</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -3395,13 +3413,13 @@
         <f>SUMPRODUCT(L12:L16,O3:O7)</f>
         <v>0.79761688311688317</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="28">
         <f t="shared" si="2"/>
         <v>2.5770954611263833E-3</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="26">
+      <c r="M19" s="24">
         <f>AVERAGE(M12:M16)</f>
         <v>2.0969088771799092E-3</v>
       </c>
@@ -3416,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752A21F7-07F8-4DA3-997C-BEFBEAB2554C}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -3434,7 +3452,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3717,10 +3735,10 @@
         <v>24</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -3899,7 +3917,7 @@
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="27">
+      <c r="M20" s="25">
         <f>AVERAGE(M13:M17)</f>
         <v>8.9297445694615715E-3</v>
       </c>

--- a/Assignments/Project3/P3_Data.xlsx
+++ b/Assignments/Project3/P3_Data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7F81C-91BA-4ADF-B1FB-92A0D0E0A3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF2A36C-A51A-4165-A297-76B4F85ED31E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedDelay" sheetId="4" r:id="rId1"/>
-    <sheet name="NetA" sheetId="2" r:id="rId2"/>
-    <sheet name="NetB" sheetId="3" r:id="rId3"/>
+    <sheet name="NetA_lifetime_load" sheetId="2" r:id="rId2"/>
+    <sheet name="NetB_lifetime_load" sheetId="3" r:id="rId3"/>
+    <sheet name="NetA_queues" sheetId="5" r:id="rId4"/>
+    <sheet name="NetB_queues" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="60">
   <si>
     <t>B</t>
   </si>
@@ -198,16 +200,27 @@
   </si>
   <si>
     <t>Expected time in system for Nodes A-F:</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Nodetime</t>
+  </si>
+  <si>
+    <t>Service Time:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -266,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,12 +305,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,12 +443,50 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +685,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NetA!$N$3:$N$7</c:f>
+              <c:f>NetA_lifetime_load!$N$3:$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -580,7 +708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NetA!$L$3:$L$7</c:f>
+              <c:f>NetA_lifetime_load!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -854,7 +982,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NetB!$J$4:$J$8</c:f>
+              <c:f>NetB_lifetime_load!$J$4:$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -877,7 +1005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NetB!$L$4:$L$8</c:f>
+              <c:f>NetB_lifetime_load!$L$4:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2467,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5472FA95-8779-4D51-BF62-F3B98DB8077F}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,15 +2614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2790,7 +2918,7 @@
         <v>44</v>
       </c>
       <c r="F14">
-        <f>SUMPRODUCT(C13:C17,C21:C25)</f>
+        <f>SUMPRODUCT(C13:C17,C22:C26)</f>
         <v>0.79761688311688317</v>
       </c>
       <c r="H14">
@@ -2814,7 +2942,7 @@
         <v>46</v>
       </c>
       <c r="F15">
-        <f>SUMPRODUCT(D21:D25,C13:C17)</f>
+        <f>SUMPRODUCT(D22:D26,C13:C17)</f>
         <v>1.2095057809685137</v>
       </c>
       <c r="H15">
@@ -2853,11 +2981,11 @@
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -2872,65 +3000,78 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <f>G3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <f>K3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C22" s="23">
         <f>G3+0.06+G4</f>
         <v>0.66</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D22" s="23">
         <f>K3+0.06+K4</f>
         <v>1.06</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C23" s="23">
         <f>G3+0.05+G5</f>
         <v>0.65</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D23" s="23">
         <f>K3+0.05+K5</f>
         <v>1.0499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C24" s="23">
         <f>G3+0.06+G4+0.04+G6</f>
         <v>0.8600000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f>K3+0.06+K4+0.04+K6</f>
         <v>1.2739130434782608</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f>0.5*(G3+0.06+G4+0.03+G8)+0.5*(G3+0.05+G5+0.02+G8)</f>
         <v>0.86181818181818182</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f>0.5*(K3+0.06+K4+0.03+K8)+0.5*(K3+0.05+K5+0.02+K8)</f>
         <v>1.2840816326530611</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>G3+0.05+G5+0.01+G7</f>
         <v>0.80285714285714294</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>K3+0.05+K5+0.01+K7</f>
         <v>1.2115151515151514</v>
       </c>
@@ -2949,7 +3090,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,6 +3098,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
@@ -3293,14 +3435,14 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K13:K16" si="1">AVERAGEIF(D4:D18, J13,F4:F18)</f>
+        <f>AVERAGEIF(D4:D18, J13,F4:F18)</f>
         <v>0.65093532837208334</v>
       </c>
       <c r="L13">
         <v>0.65</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" ref="M13:M17" si="2">ABS((L13-K13)/L13)</f>
+        <f t="shared" ref="M13:M17" si="1">ABS((L13-K13)/L13)</f>
         <v>1.4389667262820333E-3</v>
       </c>
     </row>
@@ -3321,14 +3463,14 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f>AVERAGEIF(D5:D18, J14,F5:F19)</f>
         <v>0.86090212760949736</v>
       </c>
       <c r="L14">
         <v>0.8600000000000001</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0489855924386753E-3</v>
       </c>
     </row>
@@ -3349,14 +3491,14 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f>AVERAGEIF(D6:D18, J15,F6:F20)</f>
         <v>0.86511522213617598</v>
       </c>
       <c r="L15">
         <v>0.86181818181818182</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.82567969387508E-3</v>
       </c>
     </row>
@@ -3377,14 +3519,14 @@
         <v>4</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGEIF(D7:D18, J16,F7:F21)</f>
         <v>0.80614632683151199</v>
       </c>
       <c r="L16" s="12">
         <v>0.80285714285714294</v>
       </c>
       <c r="M16" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0968483666518523E-3</v>
       </c>
       <c r="N16" s="24"/>
@@ -3414,15 +3556,13 @@
         <v>0.79761688311688317</v>
       </c>
       <c r="M17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5770954611263833E-3</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="24">
-        <f>AVERAGE(M12:M16)</f>
-        <v>2.0969088771799092E-3</v>
-      </c>
+      <c r="J19" s="29"/>
+      <c r="M19" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3434,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752A21F7-07F8-4DA3-997C-BEFBEAB2554C}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,4 +4066,923 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432D22C-8253-4384-BD4C-31624F09DD32}">
+  <dimension ref="B3:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>134835</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16081840539217701</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>162321</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.18439644336185801</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>107891</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.14390456124221801</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>270014</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40203918014206003</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="39">
+        <f>AVERAGEIF($D$4:$D$21,I7,$F$4:$F$21)</f>
+        <v>0.20079153817770534</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="42">
+        <f>ABS(K7-J7)/K7</f>
+        <v>3.9576908885266548E-3</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>135055</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.16070111365263301</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <f>AVERAGEIF($D$4:$D$21,I8,$F$4:$F$21)</f>
+        <v>0.39962868827183667</v>
+      </c>
+      <c r="K8" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" ref="L8:L12" si="0">ABS(K8-J8)/K8</f>
+        <v>9.2827932040837058E-4</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1">
+        <v>538662</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.20115651172644899</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" ref="J9:J12" si="1">AVERAGEIF($D$4:$D$21,I9,$F$4:$F$21)</f>
+        <v>0.40061635879356006</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="0"/>
+        <v>1.5408969839000863E-3</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>269558</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.395593121098338</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>0.16047011455506269</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0.16</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="0"/>
+        <v>2.9382159691417747E-3</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM(P5:P9)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>270372</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.40396023860768898</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>0.18325019036754767</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="0"/>
+        <v>7.8760470215121364E-3</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>108313</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.14268406710159601</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>0.14333017968435569</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L12" s="43">
+        <f t="shared" si="0"/>
+        <v>3.3112577904898521E-3</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1">
+        <v>539934</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.202770166932906</v>
+      </c>
+      <c r="L13" s="44">
+        <f>AVERAGE(L7:L12)</f>
+        <v>3.4253979956631458E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>161621</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.182400424511172</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>268631</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.39776195033141698</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>270100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.39288664606576101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1">
+        <v>540546</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.198447935873761</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>270445</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.40849400495092503</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>134669</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.15989082462037801</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>107413</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.14340191070925301</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>162420</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.18295370322961299</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4899EA22-2C4E-460C-A0C9-CB4F1D5E0DA3}">
+  <dimension ref="B3:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>122827</v>
+      </c>
+      <c r="F4">
+        <v>0.15267966457721799</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>305772</v>
+      </c>
+      <c r="F5">
+        <v>0.65232860065481402</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>611297</v>
+      </c>
+      <c r="F6">
+        <v>0.336813996148144</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>305911</v>
+      </c>
+      <c r="F7">
+        <v>0.65234093008027505</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="39">
+        <f>AVERAGEIF($D$4:$D$21,I7,$F$4:$F$21)</f>
+        <v>0.33258320888107401</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L7" s="42">
+        <f>ABS(K7-J7)/K7</f>
+        <v>2.2503733567779127E-3</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>153158</v>
+      </c>
+      <c r="F8">
+        <v>0.17401876466268801</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="39">
+        <f>AVERAGEIF($D$4:$D$21,I8,$F$4:$F$21)</f>
+        <v>0.65160888586796872</v>
+      </c>
+      <c r="K8" s="39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L8" s="42">
+        <f>ABS(K8-J8)/K8</f>
+        <v>2.2586671198046859E-2</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>122332</v>
+      </c>
+      <c r="F9">
+        <v>0.15034122748581799</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39">
+        <f t="shared" ref="J8:J12" si="0">AVERAGEIF($D$4:$D$21,I9,$F$4:$F$21)</f>
+        <v>0.66299935203761362</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" ref="L8:L12" si="1">ABS(K9-J9)/K9</f>
+        <v>5.5009719435795135E-3</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>305368</v>
+      </c>
+      <c r="F10">
+        <v>0.65948749341572799</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="0"/>
+        <v>0.17384350634331799</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="1"/>
+        <v>3.9983852592150732E-4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="4">
+        <f>SUM(P5:P9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>183285</v>
+      </c>
+      <c r="F11">
+        <v>0.20645602183828901</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="39">
+        <f t="shared" si="0"/>
+        <v>0.20506167117600269</v>
+      </c>
+      <c r="K11" s="39">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
+        <v>4.8021887624132738E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>611298</v>
+      </c>
+      <c r="F12">
+        <v>0.33143793328827398</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="39">
+        <f t="shared" si="0"/>
+        <v>0.15116467112537099</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="L12" s="43">
+        <f t="shared" si="1"/>
+        <v>2.3131705725514817E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>152751</v>
+      </c>
+      <c r="F13">
+        <v>0.17434693551081601</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="33">
+        <f>AVERAGE(L7:L12)</f>
+        <v>6.3088690598817583E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>183740</v>
+      </c>
+      <c r="F14">
+        <v>0.20377991304260001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>121719</v>
+      </c>
+      <c r="F15">
+        <v>0.150473121313077</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>306298</v>
+      </c>
+      <c r="F16">
+        <v>0.67746695327499296</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>612400</v>
+      </c>
+      <c r="F17">
+        <v>0.329497697206804</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>306085</v>
+      </c>
+      <c r="F18">
+        <v>0.65015712686881699</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>152752</v>
+      </c>
+      <c r="F19">
+        <v>0.17316481885644999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>183350</v>
+      </c>
+      <c r="F20">
+        <v>0.204949078647119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>305524</v>
+      </c>
+      <c r="F21">
+        <v>0.65204360942212003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignments/Project3/P3_Data.xlsx
+++ b/Assignments/Project3/P3_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micah Hayden\Documents\AFIT\SP2019\CSCE 654 - Communications\Assignments\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF2A36C-A51A-4165-A297-76B4F85ED31E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B69CA-4DDF-4DA5-BBD3-572E4DABD3EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{09D6966A-56E8-4463-9806-8089B6ACFC20}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedDelay" sheetId="4" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>Traffic Load</t>
   </si>
   <si>
-    <t>Expected Delays:</t>
-  </si>
-  <si>
     <t>lambda</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Service Time:</t>
+  </si>
+  <si>
+    <t>Expected End-to-End Delays:</t>
   </si>
 </sst>
 </file>
@@ -219,8 +219,8 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -446,12 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,22 +465,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2598,7 +2598,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,15 +2614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="E1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>43</v>
@@ -2642,7 +2642,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
@@ -2981,11 +2981,11 @@
       <c r="D17" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -3000,7 +3000,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <f>G3</f>
@@ -3087,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC06F7B-4B30-41AA-A5D1-AEF115CE92AD}">
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIF(D3:D17, J3,E3:E17)</f>
+        <f>AVERAGEIF($D$3:$D$17, J3,$E$3:$E$17)</f>
         <v>54154</v>
       </c>
       <c r="L3" s="5">
@@ -3194,11 +3194,11 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIF($D$3:$D$17, J4,$E$3:$E$17)</f>
+        <f t="shared" ref="K4:K7" si="0">AVERAGEIF($D$3:$D$17, J4,$E$3:$E$17)</f>
         <v>80704.666666666672</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L7" si="0">K4/$K$8</f>
+        <f t="shared" ref="L4:L7" si="1">K4/$K$8</f>
         <v>0.14953523849522268</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -3225,11 +3225,11 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <f>AVERAGEIF($D$3:$D$17, J5,$E$3:$E$17)</f>
+        <f t="shared" si="0"/>
         <v>134852.66666666666</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24986443169395528</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -3256,11 +3256,11 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <f>AVERAGEIF($D$3:$D$17, J6,$E$3:$E$17)</f>
+        <f t="shared" si="0"/>
         <v>162120.33333333334</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3003878674086381</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -3286,12 +3286,12 @@
       <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="12">
-        <f>AVERAGEIF($D$3:$D$17, J7,$E$3:$E$17)</f>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>107871.66666666667</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19987215198473235</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>AVERAGEIF(D3:D17, J12,F3:F17)</f>
+        <f>AVERAGEIF($D$3:$D$17, J12,$F$3:$F$17)</f>
         <v>0.66004888224439029</v>
       </c>
       <c r="L12">
@@ -3435,14 +3435,14 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <f>AVERAGEIF(D4:D18, J13,F4:F18)</f>
+        <f t="shared" ref="K13:K16" si="2">AVERAGEIF($D$3:$D$17, J13,$F$3:$F$17)</f>
         <v>0.65093532837208334</v>
       </c>
       <c r="L13">
         <v>0.65</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" ref="M13:M17" si="1">ABS((L13-K13)/L13)</f>
+        <f t="shared" ref="M13:M17" si="3">ABS((L13-K13)/L13)</f>
         <v>1.4389667262820333E-3</v>
       </c>
     </row>
@@ -3463,14 +3463,14 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <f>AVERAGEIF(D5:D18, J14,F5:F19)</f>
+        <f t="shared" si="2"/>
         <v>0.86090212760949736</v>
       </c>
       <c r="L14">
         <v>0.8600000000000001</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0489855924386753E-3</v>
       </c>
     </row>
@@ -3491,15 +3491,15 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <f>AVERAGEIF(D6:D18, J15,F6:F20)</f>
-        <v>0.86511522213617598</v>
+        <f t="shared" si="2"/>
+        <v>0.86479551133692334</v>
       </c>
       <c r="L15">
         <v>0.86181818181818182</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="1"/>
-        <v>3.82567969387508E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4547072474848894E-3</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3518,16 +3518,16 @@
       <c r="J16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="12">
-        <f>AVERAGEIF(D7:D18, J16,F7:F21)</f>
-        <v>0.80614632683151199</v>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.80433028315625066</v>
       </c>
       <c r="L16" s="12">
         <v>0.80285714285714294</v>
       </c>
       <c r="M16" s="27">
-        <f t="shared" si="1"/>
-        <v>4.0968483666518523E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.8348722586750989E-3</v>
       </c>
       <c r="N16" s="24"/>
     </row>
@@ -3549,20 +3549,26 @@
       </c>
       <c r="K17" s="7">
         <f>SUMPRODUCT(K12:K16,L3:L7)</f>
-        <v>0.79967241796608146</v>
+        <v>0.79921340416343367</v>
       </c>
       <c r="L17" s="10">
         <f>SUMPRODUCT(L12:L16,O3:O7)</f>
         <v>0.79761688311688317</v>
       </c>
       <c r="M17" s="28">
-        <f t="shared" si="1"/>
-        <v>2.5770954611263833E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0016139080603541E-3</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J19" s="29"/>
       <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="25">
+        <f>AVERAGE(M12:M16)</f>
+        <v>1.5703191663065206E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3575,7 +3581,7 @@
   <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,7 +4078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432D22C-8253-4384-BD4C-31624F09DD32}">
   <dimension ref="B3:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -4089,7 +4095,7 @@
   <sheetData>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -4125,7 +4131,7 @@
         <v>0.16081840539217701</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -4166,16 +4172,16 @@
       <c r="F6" s="1">
         <v>0.14390456124221801</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -4200,17 +4206,17 @@
       <c r="F7" s="1">
         <v>0.40203918014206003</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="39">
+      <c r="I7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="37">
         <f>AVERAGEIF($D$4:$D$21,I7,$F$4:$F$21)</f>
         <v>0.20079153817770534</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="37">
         <v>0.2</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="40">
         <f>ABS(K7-J7)/K7</f>
         <v>3.9576908885266548E-3</v>
       </c>
@@ -4236,17 +4242,17 @@
       <c r="F8" s="1">
         <v>0.16070111365263301</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <f>AVERAGEIF($D$4:$D$21,I8,$F$4:$F$21)</f>
         <v>0.39962868827183667</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>0.4</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <f t="shared" ref="L8:L12" si="0">ABS(K8-J8)/K8</f>
         <v>9.2827932040837058E-4</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1">
         <v>538662</v>
@@ -4272,17 +4278,17 @@
       <c r="F9" s="1">
         <v>0.20115651172644899</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="37">
         <f t="shared" ref="J9:J12" si="1">AVERAGEIF($D$4:$D$21,I9,$F$4:$F$21)</f>
         <v>0.40061635879356006</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>0.4</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="40">
         <f t="shared" si="0"/>
         <v>1.5408969839000863E-3</v>
       </c>
@@ -4308,17 +4314,17 @@
       <c r="F10" s="1">
         <v>0.395593121098338</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="37">
         <f t="shared" si="1"/>
         <v>0.16047011455506269</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>0.16</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>2.9382159691417747E-3</v>
       </c>
@@ -4345,17 +4351,17 @@
       <c r="F11" s="1">
         <v>0.40396023860768898</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="37">
         <f t="shared" si="1"/>
         <v>0.18325019036754767</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="39">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="40">
         <f t="shared" si="0"/>
         <v>7.8760470215121364E-3</v>
       </c>
@@ -4376,17 +4382,17 @@
       <c r="F12" s="1">
         <v>0.14268406710159601</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="37">
         <f t="shared" si="1"/>
         <v>0.14333017968435569</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="38">
         <v>0.14285714285714285</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="41">
         <f t="shared" si="0"/>
         <v>3.3112577904898521E-3</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1">
         <v>539934</v>
@@ -4407,7 +4413,7 @@
       <c r="F13" s="1">
         <v>0.202770166932906</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="42">
         <f>AVERAGE(L7:L12)</f>
         <v>3.4253979956631458E-3</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1">
         <v>540546</v>
@@ -4534,7 +4540,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4568,7 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -4597,7 +4603,7 @@
         <v>0.15267966457721799</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -4628,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>611297</v>
@@ -4636,16 +4642,16 @@
       <c r="F6">
         <v>0.336813996148144</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -4668,17 +4674,17 @@
       <c r="F7">
         <v>0.65234093008027505</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="39">
+      <c r="I7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="37">
         <f>AVERAGEIF($D$4:$D$21,I7,$F$4:$F$21)</f>
         <v>0.33258320888107401</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="40">
         <f>ABS(K7-J7)/K7</f>
         <v>2.2503733567779127E-3</v>
       </c>
@@ -4702,17 +4708,17 @@
       <c r="F8">
         <v>0.17401876466268801</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <f>AVERAGEIF($D$4:$D$21,I8,$F$4:$F$21)</f>
         <v>0.65160888586796872</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <f>ABS(K8-J8)/K8</f>
         <v>2.2586671198046859E-2</v>
       </c>
@@ -4736,18 +4742,18 @@
       <c r="F9">
         <v>0.15034122748581799</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="39">
-        <f t="shared" ref="J8:J12" si="0">AVERAGEIF($D$4:$D$21,I9,$F$4:$F$21)</f>
+      <c r="J9" s="37">
+        <f t="shared" ref="J9:J12" si="0">AVERAGEIF($D$4:$D$21,I9,$F$4:$F$21)</f>
         <v>0.66299935203761362</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L9" s="42">
-        <f t="shared" ref="L8:L12" si="1">ABS(K9-J9)/K9</f>
+      <c r="L9" s="40">
+        <f t="shared" ref="L9:L12" si="1">ABS(K9-J9)/K9</f>
         <v>5.5009719435795135E-3</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -4770,17 +4776,17 @@
       <c r="F10">
         <v>0.65948749341572799</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="37">
         <f t="shared" si="0"/>
         <v>0.17384350634331799</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="37">
         <v>0.17391304347826086</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="40">
         <f t="shared" si="1"/>
         <v>3.9983852592150732E-4</v>
       </c>
@@ -4805,17 +4811,17 @@
       <c r="F11">
         <v>0.20645602183828901</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="37">
         <f t="shared" si="0"/>
         <v>0.20506167117600269</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="37">
         <v>0.2040816326530612</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="40">
         <f t="shared" si="1"/>
         <v>4.8021887624132738E-3</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>611298</v>
@@ -4833,17 +4839,17 @@
       <c r="F12">
         <v>0.33143793328827398</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="37">
         <f t="shared" si="0"/>
         <v>0.15116467112537099</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="38">
         <v>0.15151515151515152</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="41">
         <f t="shared" si="1"/>
         <v>2.3131705725514817E-3</v>
       </c>
@@ -4864,7 +4870,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="19"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="33">
+      <c r="L13" s="31">
         <f>AVERAGE(L7:L12)</f>
         <v>6.3088690598817583E-3</v>
       </c>
@@ -4896,7 +4902,7 @@
       <c r="F15">
         <v>0.150473121313077</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -4917,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>612400</v>
